--- a/output/output_version_2_fixed_painless.xlsx
+++ b/output/output_version_2_fixed_painless.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
@@ -820,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="17">
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09</v>
+        <v>-3.61</v>
       </c>
     </row>
     <row r="18">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0.12</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="22">
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="28">
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="30">
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="35">
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="37">
@@ -1601,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="38">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
@@ -1675,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="40">
@@ -1712,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>10.87</v>
+        <v>30.38</v>
       </c>
     </row>
     <row r="41">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>1787.92</v>
+        <v>1920.61</v>
       </c>
     </row>
     <row r="42">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="45">
@@ -1871,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46">
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0.37</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="48">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>12.19</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="49">
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="52">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="53">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="54">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1.82</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1.7</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="57">
@@ -2291,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>2.08</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="58">
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="K58" t="n">
-        <v>92.98999999999999</v>
+        <v>362.16</v>
       </c>
     </row>
     <row r="59">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="60">
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="63">
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>18.79</v>
+        <v>20.36</v>
       </c>
     </row>
     <row r="65">
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>29.01</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="66">
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>59.52</v>
+        <v>56.83</v>
       </c>
     </row>
     <row r="67">
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>63.61</v>
+        <v>65.56999999999999</v>
       </c>
     </row>
     <row r="68">
@@ -2650,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>270.14</v>
+        <v>317.41</v>
       </c>
     </row>
     <row r="69">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>1359.13</v>
+        <v>1425.88</v>
       </c>
     </row>
     <row r="70">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>6.03</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="72">
@@ -2772,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>6.02</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="73">
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>6.36</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="74">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="n">
-        <v>5.67</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="75">
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>5.76</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="76">
@@ -2920,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="K76" t="n">
-        <v>5.56</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="77">
@@ -2957,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>5.88</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="78">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="79">
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="K79" t="n">
-        <v>5.38</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="80">
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>5.52</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="81">
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>6.15</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="82">
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>9.039999999999999</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="83">
@@ -3179,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="n">
-        <v>8.699999999999999</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="84">
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>8.56</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="85">
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>7.02</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="86">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>19.42</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="87">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>13.96</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="88">
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>16.47</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="89">
@@ -3401,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>11.86</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="90">
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>69.15000000000001</v>
+        <v>57.57</v>
       </c>
     </row>
     <row r="91">
@@ -3475,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="K91" t="n">
-        <v>72.58</v>
+        <v>88.78</v>
       </c>
     </row>
     <row r="92">
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>42.59</v>
+        <v>150.19</v>
       </c>
     </row>
     <row r="93">
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>125.91</v>
+        <v>450.87</v>
       </c>
     </row>
     <row r="94">
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="K94" t="n">
-        <v>831.64</v>
+        <v>352.61</v>
       </c>
     </row>
     <row r="95">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>499.04</v>
+        <v>556.1900000000001</v>
       </c>
     </row>
     <row r="96">
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>48.35</v>
+        <v>47.48</v>
       </c>
     </row>
     <row r="98">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="K98" t="n">
-        <v>20.79</v>
+        <v>49.01</v>
       </c>
     </row>
     <row r="99">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="K99" t="n">
-        <v>59.16</v>
+        <v>48.34</v>
       </c>
     </row>
     <row r="100">
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>38.01</v>
+        <v>48.94</v>
       </c>
     </row>
     <row r="101">
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>44.14</v>
+        <v>63.65</v>
       </c>
     </row>
     <row r="102">
@@ -3856,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>51.42</v>
+        <v>142.45</v>
       </c>
     </row>
     <row r="103">
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>41.47</v>
+        <v>205.89</v>
       </c>
     </row>
     <row r="104">
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>163.17</v>
+        <v>922.42</v>
       </c>
     </row>
     <row r="105">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>1333.69</v>
+        <v>297.21</v>
       </c>
     </row>
     <row r="106">
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>36.83</v>
+        <v>49.38</v>
       </c>
     </row>
     <row r="108">
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>26.32</v>
+        <v>57.37</v>
       </c>
     </row>
     <row r="109">
@@ -4089,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="n">
-        <v>46.15</v>
+        <v>65.73</v>
       </c>
     </row>
     <row r="110">
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>16.99</v>
+        <v>130.02</v>
       </c>
     </row>
     <row r="111">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="n">
-        <v>35.15</v>
+        <v>68.81999999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4200,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>25.78</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="113">
@@ -4237,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="K113" t="n">
-        <v>45.6</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="114">
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="K114" t="n">
-        <v>71.12</v>
+        <v>120.64</v>
       </c>
     </row>
     <row r="115">
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>228.7</v>
+        <v>210.06</v>
       </c>
     </row>
     <row r="116">
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>67.73</v>
+        <v>130.89</v>
       </c>
     </row>
     <row r="117">
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>67.77</v>
+        <v>68.36</v>
       </c>
     </row>
     <row r="118">
@@ -4418,134 +4418,134 @@
       <c r="I118" t="n">
         <v>1507236</v>
       </c>
-      <c r="J118" t="b">
-        <v>1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>346.53</v>
+        <v>811.64</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Q-494_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>494</v>
-      </c>
-      <c r="C119" t="n">
-        <v>326</v>
-      </c>
-      <c r="D119" t="n">
-        <v>66</v>
-      </c>
-      <c r="E119" t="n">
-        <v>144</v>
-      </c>
-      <c r="F119" t="n">
-        <v>220</v>
-      </c>
-      <c r="G119" t="n">
-        <v>156</v>
-      </c>
-      <c r="H119" t="n">
-        <v>482640</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1507236</v>
-      </c>
-      <c r="J119" t="b">
-        <v>1</v>
-      </c>
-      <c r="K119" t="n">
-        <v>296.73</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C120" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D120" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E120" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G120" t="n">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="H120" t="n">
-        <v>482640</v>
+        <v>523122</v>
       </c>
       <c r="I120" t="n">
-        <v>1507236</v>
+        <v>3136447</v>
       </c>
       <c r="J120" t="b">
         <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>211.28</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q-494_bus.mtx.rnd</t>
+          <t>R-dwt__503.mtx.rnd</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="C121" t="n">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D121" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E121" t="n">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="F121" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="G121" t="n">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="H121" t="n">
-        <v>482640</v>
+        <v>523122</v>
       </c>
       <c r="I121" t="n">
-        <v>1507236</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>3136447</v>
+      </c>
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
       <c r="K121" t="n">
-        <v>277.46</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>R-dwt__503.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>503</v>
+      </c>
+      <c r="C122" t="n">
+        <v>347</v>
+      </c>
+      <c r="D122" t="n">
+        <v>69</v>
+      </c>
+      <c r="E122" t="n">
+        <v>31</v>
+      </c>
+      <c r="F122" t="n">
+        <v>64</v>
+      </c>
+      <c r="G122" t="n">
+        <v>33</v>
+      </c>
+      <c r="H122" t="n">
+        <v>523122</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3136447</v>
+      </c>
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>32.02</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4569,7 +4569,7 @@
         <v>64</v>
       </c>
       <c r="G123" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H123" t="n">
         <v>523122</v>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>18.45</v>
+        <v>35.21</v>
       </c>
     </row>
     <row r="124">
@@ -4606,7 +4606,7 @@
         <v>64</v>
       </c>
       <c r="G124" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H124" t="n">
         <v>523122</v>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>17.29</v>
+        <v>45.35</v>
       </c>
     </row>
     <row r="125">
@@ -4643,7 +4643,7 @@
         <v>64</v>
       </c>
       <c r="G125" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H125" t="n">
         <v>523122</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="K125" t="n">
-        <v>23.59</v>
+        <v>55.36</v>
       </c>
     </row>
     <row r="126">
@@ -4680,7 +4680,7 @@
         <v>64</v>
       </c>
       <c r="G126" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H126" t="n">
         <v>523122</v>
@@ -4692,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>27.26</v>
+        <v>58.07</v>
       </c>
     </row>
     <row r="127">
@@ -4717,7 +4717,7 @@
         <v>64</v>
       </c>
       <c r="G127" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H127" t="n">
         <v>523122</v>
@@ -4729,7 +4729,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="n">
-        <v>28.43</v>
+        <v>83.14</v>
       </c>
     </row>
     <row r="128">
@@ -4754,7 +4754,7 @@
         <v>64</v>
       </c>
       <c r="G128" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H128" t="n">
         <v>523122</v>
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>47.36</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="129">
@@ -4791,7 +4791,7 @@
         <v>64</v>
       </c>
       <c r="G129" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H129" t="n">
         <v>523122</v>
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>36.24</v>
+        <v>101.78</v>
       </c>
     </row>
     <row r="130">
@@ -4828,7 +4828,7 @@
         <v>64</v>
       </c>
       <c r="G130" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H130" t="n">
         <v>523122</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>40.87</v>
+        <v>63.88</v>
       </c>
     </row>
     <row r="131">
@@ -4865,7 +4865,7 @@
         <v>64</v>
       </c>
       <c r="G131" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H131" t="n">
         <v>523122</v>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="K131" t="n">
-        <v>42.98</v>
+        <v>175.37</v>
       </c>
     </row>
     <row r="132">
@@ -4902,7 +4902,7 @@
         <v>64</v>
       </c>
       <c r="G132" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H132" t="n">
         <v>523122</v>
@@ -4914,400 +4914,402 @@
         <v>1</v>
       </c>
       <c r="K132" t="n">
-        <v>77.89</v>
+        <v>1087.47</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>503</v>
-      </c>
-      <c r="C133" t="n">
-        <v>347</v>
-      </c>
-      <c r="D133" t="n">
-        <v>69</v>
-      </c>
-      <c r="E133" t="n">
-        <v>31</v>
-      </c>
-      <c r="F133" t="n">
-        <v>64</v>
-      </c>
-      <c r="G133" t="n">
-        <v>41</v>
-      </c>
-      <c r="H133" t="n">
-        <v>523122</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3136447</v>
-      </c>
-      <c r="J133" t="b">
-        <v>1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>76.45999999999999</v>
-      </c>
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C134" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D134" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F134" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>42</v>
+        <v>151</v>
       </c>
       <c r="H134" t="n">
-        <v>523122</v>
+        <v>526892</v>
       </c>
       <c r="I134" t="n">
-        <v>3136447</v>
+        <v>2091880</v>
       </c>
       <c r="J134" t="b">
         <v>1</v>
       </c>
       <c r="K134" t="n">
-        <v>122.63</v>
+        <v>334.34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C135" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D135" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E135" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F135" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="H135" t="n">
-        <v>523122</v>
+        <v>526892</v>
       </c>
       <c r="I135" t="n">
-        <v>3136447</v>
+        <v>2091880</v>
       </c>
       <c r="J135" t="b">
         <v>1</v>
       </c>
       <c r="K135" t="n">
-        <v>496.07</v>
+        <v>929.61</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>S-sherman4.mtx.rnd</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C136" t="n">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D136" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E136" t="n">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F136" t="n">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="H136" t="n">
-        <v>523122</v>
+        <v>526892</v>
       </c>
       <c r="I136" t="n">
-        <v>3136447</v>
-      </c>
-      <c r="J136" t="b">
-        <v>1</v>
-      </c>
+        <v>2091880</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>217.72</v>
+        <v>536.28</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>R-dwt__503.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>503</v>
-      </c>
-      <c r="C137" t="n">
-        <v>347</v>
-      </c>
-      <c r="D137" t="n">
-        <v>69</v>
-      </c>
-      <c r="E137" t="n">
-        <v>31</v>
-      </c>
-      <c r="F137" t="n">
-        <v>64</v>
-      </c>
-      <c r="G137" t="n">
-        <v>45</v>
-      </c>
-      <c r="H137" t="n">
-        <v>523122</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3136447</v>
-      </c>
-      <c r="J137" t="b">
-        <v>1</v>
-      </c>
-      <c r="K137" t="n">
-        <v>94.81</v>
-      </c>
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C138" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D138" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E138" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F138" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G138" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H138" t="n">
-        <v>523122</v>
+        <v>670738</v>
       </c>
       <c r="I138" t="n">
-        <v>3136447</v>
+        <v>3269386</v>
       </c>
       <c r="J138" t="b">
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>294.2</v>
+        <v>30.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>R-dwt__503.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>503</v>
+        <v>592</v>
       </c>
       <c r="C139" t="n">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="D139" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E139" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="F139" t="n">
+        <v>104</v>
+      </c>
+      <c r="G139" t="n">
+        <v>66</v>
+      </c>
+      <c r="H139" t="n">
+        <v>670738</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3269386</v>
+      </c>
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>59.58</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>592</v>
+      </c>
+      <c r="C140" t="n">
+        <v>378</v>
+      </c>
+      <c r="D140" t="n">
         <v>64</v>
       </c>
-      <c r="G139" t="n">
-        <v>47</v>
-      </c>
-      <c r="H139" t="n">
-        <v>523122</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3136447</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>137.99</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr"/>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="E140" t="n">
+        <v>65</v>
+      </c>
+      <c r="F140" t="n">
+        <v>104</v>
+      </c>
+      <c r="G140" t="n">
+        <v>67</v>
+      </c>
+      <c r="H140" t="n">
+        <v>670738</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3269386</v>
+      </c>
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>67.09999999999999</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C141" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D141" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E141" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F141" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G141" t="n">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="H141" t="n">
-        <v>526892</v>
+        <v>670738</v>
       </c>
       <c r="I141" t="n">
-        <v>2091880</v>
+        <v>3269386</v>
       </c>
       <c r="J141" t="b">
         <v>1</v>
       </c>
       <c r="K141" t="n">
-        <v>943.67</v>
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C142" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D142" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E142" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F142" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G142" t="n">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="H142" t="n">
-        <v>526892</v>
+        <v>670738</v>
       </c>
       <c r="I142" t="n">
-        <v>2091880</v>
+        <v>3269386</v>
       </c>
       <c r="J142" t="b">
         <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>541.2</v>
+        <v>59.11</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>S-sherman4.mtx.rnd</t>
+          <t>T-dwt__592.mtx.rnd</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="C143" t="n">
-        <v>322</v>
+        <v>378</v>
       </c>
       <c r="D143" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E143" t="n">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F143" t="n">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="G143" t="n">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="H143" t="n">
-        <v>526892</v>
+        <v>670738</v>
       </c>
       <c r="I143" t="n">
-        <v>2091880</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>3269386</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
       <c r="K143" t="n">
-        <v>320.61</v>
+        <v>123.14</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>T-dwt__592.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>592</v>
+      </c>
+      <c r="C144" t="n">
+        <v>378</v>
+      </c>
+      <c r="D144" t="n">
+        <v>64</v>
+      </c>
+      <c r="E144" t="n">
+        <v>65</v>
+      </c>
+      <c r="F144" t="n">
+        <v>104</v>
+      </c>
+      <c r="G144" t="n">
+        <v>71</v>
+      </c>
+      <c r="H144" t="n">
+        <v>670738</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3269386</v>
+      </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>57.89</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5331,7 +5333,7 @@
         <v>104</v>
       </c>
       <c r="G145" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H145" t="n">
         <v>670738</v>
@@ -5343,7 +5345,7 @@
         <v>1</v>
       </c>
       <c r="K145" t="n">
-        <v>36.38</v>
+        <v>138.24</v>
       </c>
     </row>
     <row r="146">
@@ -5368,7 +5370,7 @@
         <v>104</v>
       </c>
       <c r="G146" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H146" t="n">
         <v>670738</v>
@@ -5380,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="n">
-        <v>36.62</v>
+        <v>100.54</v>
       </c>
     </row>
     <row r="147">
@@ -5405,7 +5407,7 @@
         <v>104</v>
       </c>
       <c r="G147" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H147" t="n">
         <v>670738</v>
@@ -5417,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="n">
-        <v>54.41</v>
+        <v>384.58</v>
       </c>
     </row>
     <row r="148">
@@ -5442,7 +5444,7 @@
         <v>104</v>
       </c>
       <c r="G148" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H148" t="n">
         <v>670738</v>
@@ -5454,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="n">
-        <v>71.39</v>
+        <v>258.07</v>
       </c>
     </row>
     <row r="149">
@@ -5479,7 +5481,7 @@
         <v>104</v>
       </c>
       <c r="G149" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H149" t="n">
         <v>670738</v>
@@ -5491,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="K149" t="n">
-        <v>45.93</v>
+        <v>412.15</v>
       </c>
     </row>
     <row r="150">
@@ -5516,7 +5518,7 @@
         <v>104</v>
       </c>
       <c r="G150" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H150" t="n">
         <v>670738</v>
@@ -5524,797 +5526,538 @@
       <c r="I150" t="n">
         <v>3269386</v>
       </c>
-      <c r="J150" t="b">
-        <v>1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>66.47</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>592</v>
-      </c>
-      <c r="C151" t="n">
-        <v>378</v>
-      </c>
-      <c r="D151" t="n">
-        <v>64</v>
-      </c>
-      <c r="E151" t="n">
-        <v>65</v>
-      </c>
-      <c r="F151" t="n">
-        <v>104</v>
-      </c>
-      <c r="G151" t="n">
-        <v>71</v>
-      </c>
-      <c r="H151" t="n">
-        <v>670738</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3269386</v>
-      </c>
-      <c r="J151" t="b">
-        <v>1</v>
-      </c>
-      <c r="K151" t="n">
-        <v>120.89</v>
-      </c>
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C152" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D152" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E152" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F152" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G152" t="n">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="H152" t="n">
-        <v>670738</v>
+        <v>1024116</v>
       </c>
       <c r="I152" t="n">
-        <v>3269386</v>
+        <v>3323342</v>
       </c>
       <c r="J152" t="b">
         <v>1</v>
       </c>
       <c r="K152" t="n">
-        <v>158.57</v>
+        <v>76.45</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C153" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D153" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E153" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F153" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G153" t="n">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="H153" t="n">
-        <v>670738</v>
+        <v>1024116</v>
       </c>
       <c r="I153" t="n">
-        <v>3269386</v>
+        <v>3323342</v>
       </c>
       <c r="J153" t="b">
         <v>1</v>
       </c>
       <c r="K153" t="n">
-        <v>77.13</v>
+        <v>59.97</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>U-662_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="C154" t="n">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="D154" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E154" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="F154" t="n">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G154" t="n">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="H154" t="n">
-        <v>670738</v>
+        <v>1024116</v>
       </c>
       <c r="I154" t="n">
-        <v>3269386</v>
+        <v>3323342</v>
       </c>
       <c r="J154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>285.45</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>592</v>
-      </c>
-      <c r="C155" t="n">
-        <v>378</v>
-      </c>
-      <c r="D155" t="n">
-        <v>64</v>
-      </c>
-      <c r="E155" t="n">
-        <v>65</v>
-      </c>
-      <c r="F155" t="n">
-        <v>104</v>
-      </c>
-      <c r="G155" t="n">
-        <v>75</v>
-      </c>
-      <c r="H155" t="n">
-        <v>670738</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3269386</v>
-      </c>
-      <c r="J155" t="b">
-        <v>1</v>
-      </c>
-      <c r="K155" t="n">
-        <v>475.62</v>
-      </c>
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>T-dwt__592.mtx.rnd</t>
+          <t>V-nos6.mtx.rnd</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>592</v>
+        <v>675</v>
       </c>
       <c r="C156" t="n">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="D156" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E156" t="n">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="F156" t="n">
-        <v>104</v>
+        <v>326</v>
       </c>
       <c r="G156" t="n">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="H156" t="n">
-        <v>670738</v>
+        <v>819452</v>
       </c>
       <c r="I156" t="n">
-        <v>3269386</v>
-      </c>
-      <c r="J156" t="b">
-        <v>1</v>
-      </c>
+        <v>2955555</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>344.43</v>
+        <v>1800.26</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>T-dwt__592.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>592</v>
-      </c>
-      <c r="C157" t="n">
-        <v>378</v>
-      </c>
-      <c r="D157" t="n">
-        <v>64</v>
-      </c>
-      <c r="E157" t="n">
-        <v>65</v>
-      </c>
-      <c r="F157" t="n">
-        <v>104</v>
-      </c>
-      <c r="G157" t="n">
-        <v>77</v>
-      </c>
-      <c r="H157" t="n">
-        <v>670738</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3269386</v>
-      </c>
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>27.84</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>W-685_bus.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>685</v>
+      </c>
+      <c r="C158" t="n">
+        <v>397</v>
+      </c>
+      <c r="D158" t="n">
+        <v>58</v>
+      </c>
+      <c r="E158" t="n">
+        <v>78</v>
+      </c>
+      <c r="F158" t="n">
+        <v>136</v>
+      </c>
+      <c r="G158" t="n">
+        <v>78</v>
+      </c>
+      <c r="H158" t="n">
+        <v>815152</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2918495</v>
+      </c>
+      <c r="J158" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>35.02</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>U-662_bus.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="C159" t="n">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="D159" t="n">
+        <v>58</v>
+      </c>
+      <c r="E159" t="n">
         <v>78</v>
       </c>
-      <c r="E159" t="n">
-        <v>170</v>
-      </c>
       <c r="F159" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="G159" t="n">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="H159" t="n">
-        <v>1024116</v>
+        <v>815152</v>
       </c>
       <c r="I159" t="n">
-        <v>3323342</v>
+        <v>2918495</v>
       </c>
       <c r="J159" t="b">
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>98.05</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>U-662_bus.mtx.rnd</t>
+          <t>W-685_bus.mtx.rnd</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="C160" t="n">
-        <v>516</v>
+        <v>397</v>
       </c>
       <c r="D160" t="n">
+        <v>58</v>
+      </c>
+      <c r="E160" t="n">
         <v>78</v>
       </c>
-      <c r="E160" t="n">
-        <v>170</v>
-      </c>
       <c r="F160" t="n">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="G160" t="n">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="H160" t="n">
-        <v>1024116</v>
+        <v>815152</v>
       </c>
       <c r="I160" t="n">
-        <v>3323342</v>
+        <v>2918495</v>
       </c>
       <c r="J160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>67.23</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>U-662_bus.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>662</v>
-      </c>
-      <c r="C161" t="n">
-        <v>516</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>X-can__715.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>715</v>
+      </c>
+      <c r="C162" t="n">
+        <v>500</v>
+      </c>
+      <c r="D162" t="n">
+        <v>70</v>
+      </c>
+      <c r="E162" t="n">
         <v>78</v>
       </c>
-      <c r="E161" t="n">
-        <v>170</v>
-      </c>
-      <c r="F161" t="n">
-        <v>220</v>
-      </c>
-      <c r="G161" t="n">
-        <v>172</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1024116</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3323342</v>
-      </c>
-      <c r="J161" t="b">
-        <v>0</v>
-      </c>
-      <c r="K161" t="n">
-        <v>18.11</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="F162" t="n">
+        <v>113</v>
+      </c>
+      <c r="G162" t="n">
+        <v>78</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1071787</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5474425</v>
+      </c>
+      <c r="J162" t="b">
+        <v>1</v>
+      </c>
+      <c r="K162" t="n">
+        <v>203.72</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>V-nos6.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="C163" t="n">
-        <v>405</v>
+        <v>500</v>
       </c>
       <c r="D163" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E163" t="n">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="F163" t="n">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="G163" t="n">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="H163" t="n">
-        <v>819452</v>
+        <v>1071787</v>
       </c>
       <c r="I163" t="n">
-        <v>2955555</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>5474425</v>
+      </c>
+      <c r="J163" t="b">
+        <v>1</v>
+      </c>
       <c r="K163" t="n">
-        <v>1839.14</v>
+        <v>127.65</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>X-can__715.mtx.rnd</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>715</v>
+      </c>
+      <c r="C164" t="n">
+        <v>500</v>
+      </c>
+      <c r="D164" t="n">
+        <v>70</v>
+      </c>
+      <c r="E164" t="n">
+        <v>78</v>
+      </c>
+      <c r="F164" t="n">
+        <v>113</v>
+      </c>
+      <c r="G164" t="n">
+        <v>80</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1071787</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5474425</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>225.83</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>W-685_bus.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C165" t="n">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D165" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E165" t="n">
         <v>78</v>
       </c>
       <c r="F165" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G165" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H165" t="n">
-        <v>815152</v>
+        <v>1071787</v>
       </c>
       <c r="I165" t="n">
-        <v>2918495</v>
+        <v>5474425</v>
       </c>
       <c r="J165" t="b">
         <v>1</v>
       </c>
       <c r="K165" t="n">
-        <v>34.18</v>
+        <v>246.06</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>W-685_bus.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C166" t="n">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D166" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E166" t="n">
         <v>78</v>
       </c>
       <c r="F166" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G166" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H166" t="n">
-        <v>815152</v>
+        <v>1071787</v>
       </c>
       <c r="I166" t="n">
-        <v>2918495</v>
+        <v>5474425</v>
       </c>
       <c r="J166" t="b">
         <v>1</v>
       </c>
       <c r="K166" t="n">
-        <v>19.66</v>
+        <v>356.29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>W-685_bus.mtx.rnd</t>
+          <t>X-can__715.mtx.rnd</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="C167" t="n">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="D167" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E167" t="n">
         <v>78</v>
       </c>
       <c r="F167" t="n">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="G167" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H167" t="n">
-        <v>815152</v>
+        <v>1071787</v>
       </c>
       <c r="I167" t="n">
-        <v>2918495</v>
-      </c>
-      <c r="J167" t="b">
-        <v>0</v>
-      </c>
+        <v>5474425</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>715</v>
-      </c>
-      <c r="C169" t="n">
-        <v>500</v>
-      </c>
-      <c r="D169" t="n">
-        <v>70</v>
-      </c>
-      <c r="E169" t="n">
-        <v>78</v>
-      </c>
-      <c r="F169" t="n">
-        <v>113</v>
-      </c>
-      <c r="G169" t="n">
-        <v>78</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J169" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" t="n">
-        <v>234.77</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>715</v>
-      </c>
-      <c r="C170" t="n">
-        <v>500</v>
-      </c>
-      <c r="D170" t="n">
-        <v>70</v>
-      </c>
-      <c r="E170" t="n">
-        <v>78</v>
-      </c>
-      <c r="F170" t="n">
-        <v>113</v>
-      </c>
-      <c r="G170" t="n">
-        <v>79</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J170" t="b">
-        <v>1</v>
-      </c>
-      <c r="K170" t="n">
-        <v>500.11</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>715</v>
-      </c>
-      <c r="C171" t="n">
-        <v>500</v>
-      </c>
-      <c r="D171" t="n">
-        <v>70</v>
-      </c>
-      <c r="E171" t="n">
-        <v>78</v>
-      </c>
-      <c r="F171" t="n">
-        <v>113</v>
-      </c>
-      <c r="G171" t="n">
-        <v>80</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J171" t="b">
-        <v>1</v>
-      </c>
-      <c r="K171" t="n">
-        <v>143.52</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>715</v>
-      </c>
-      <c r="C172" t="n">
-        <v>500</v>
-      </c>
-      <c r="D172" t="n">
-        <v>70</v>
-      </c>
-      <c r="E172" t="n">
-        <v>78</v>
-      </c>
-      <c r="F172" t="n">
-        <v>113</v>
-      </c>
-      <c r="G172" t="n">
-        <v>81</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J172" t="b">
-        <v>1</v>
-      </c>
-      <c r="K172" t="n">
-        <v>141.15</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B173" t="n">
-        <v>715</v>
-      </c>
-      <c r="C173" t="n">
-        <v>500</v>
-      </c>
-      <c r="D173" t="n">
-        <v>70</v>
-      </c>
-      <c r="E173" t="n">
-        <v>78</v>
-      </c>
-      <c r="F173" t="n">
-        <v>113</v>
-      </c>
-      <c r="G173" t="n">
-        <v>82</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J173" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" t="n">
-        <v>412.58</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>X-can__715.mtx.rnd</t>
-        </is>
-      </c>
-      <c r="B174" t="n">
-        <v>715</v>
-      </c>
-      <c r="C174" t="n">
-        <v>500</v>
-      </c>
-      <c r="D174" t="n">
-        <v>70</v>
-      </c>
-      <c r="E174" t="n">
-        <v>78</v>
-      </c>
-      <c r="F174" t="n">
-        <v>113</v>
-      </c>
-      <c r="G174" t="n">
-        <v>83</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1071787</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5474425</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>381.36</v>
+        <v>640.8</v>
       </c>
     </row>
   </sheetData>
